--- a/PROYECTO2/registros.xlsx
+++ b/PROYECTO2/registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriti\OneDrive\Documents\GitHub\REDES1_2020000173\PROYECTO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF7D7B3-384A-419D-86C2-06152BB93311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120D3FA0-36B7-4E8C-B830-AD530CBBAA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EED8389A-F182-4DB2-B44D-5A06C3014CC9}"/>
+    <workbookView xWindow="7455" yWindow="0" windowWidth="21345" windowHeight="15750" xr2:uid="{EED8389A-F182-4DB2-B44D-5A06C3014CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
